--- a/results/Homeopathy_excluded/mod3.antielite_salienceBYhealth.eff.MN.xlsx
+++ b/results/Homeopathy_excluded/mod3.antielite_salienceBYhealth.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00254079376046622</v>
+        <v>0.00254035737380577</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0204792282170749</v>
+        <v>0.0204791646245631</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0375977559761769</v>
+        <v>-0.0375980677238047</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0426793434971094</v>
+        <v>0.0426787824714162</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1240668707597</v>
+        <v>0.124045947204253</v>
       </c>
       <c r="H2" t="n">
-        <v>0.901262328757913</v>
+        <v>0.901278895368017</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0966107834213703</v>
+        <v>-0.0966093108590332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0465088996115356</v>
+        <v>0.0465087285907162</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.187766551620569</v>
+        <v>-0.187764743863585</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00545501522217168</v>
+        <v>-0.00545387785448119</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.07725369183768</v>
+        <v>-2.07722966820292</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0377781506790549</v>
+        <v>0.0377803668486014</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0586922740563014</v>
+        <v>0.0586917250846392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0181560764837989</v>
+        <v>0.0181560104116661</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>0.023107018047501</v>
+        <v>0.0231065985748394</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0942775300651018</v>
+        <v>0.094276851594439</v>
       </c>
       <c r="G4" t="n">
-        <v>3.23265184020755</v>
+        <v>3.23263336789711</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00122646937515355</v>
+        <v>0.0012265486759127</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0353777156046027</v>
+        <v>0.0353772284005883</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0166506332083943</v>
+        <v>0.0166505737938725</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00274307419636314</v>
+        <v>0.00274270344267176</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0680123570128422</v>
+        <v>0.0680117533585048</v>
       </c>
       <c r="G5" t="n">
-        <v>2.12470692026097</v>
+        <v>2.12468524139434</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0336110756643362</v>
+        <v>0.0336128857602367</v>
       </c>
     </row>
   </sheetData>
